--- a/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_de_Marrakech/Faculté_de_médecine_et_de_pharmacie_de_Marrakech.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_de_Marrakech/Faculté_de_médecine_et_de_pharmacie_de_Marrakech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Marrakech</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Marrakech</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faculté de Médecine et de Pharmacie de Marrakech (FMPM) est un établissement d'enseignement supérieur public marocain de médecine et de pharmacie créé en 1999. La faculté est affiliée à l'Université Cadi Ayyad de Marrakech. Elle est également liée au CHU Mohammed VI, inauguré en 2002.
 Comme l'hôpital Ibn Tofail dont elle est proche, la faculté est située dans le quartier de Semlalia, dans le centre-ville de Marrakech.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Marrakech</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Marrakech</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Marrakech</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Marrakech</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_Marrakech</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_Marrakech</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,6 +581,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
